--- a/src_yspark/src/test_results/knn_results.xlsx
+++ b/src_yspark/src/test_results/knn_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="8340" windowHeight="5010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="8340" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Interval=5, K=3, e=#feature" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="40">
   <si>
     <t>[</t>
   </si>
@@ -314,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +417,18 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -461,7 +473,7 @@
             <c:numRef>
               <c:f>Sheet3!$E$280:$E$360</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="81"/>
               </c:numCache>
             </c:numRef>
@@ -478,7 +490,7 @@
             <c:numRef>
               <c:f>Sheet3!$F$280:$F$360</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="81"/>
               </c:numCache>
             </c:numRef>
@@ -523,7 +535,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -28075,19 +28087,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="19"/>
+    <col min="2" max="12" width="9" style="19"/>
+    <col min="14" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -28095,7 +28108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="19">
         <v>1</v>
       </c>
@@ -28127,7 +28140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -28164,12 +28177,12 @@
       <c r="L3" s="24">
         <v>0.60344827999999995</v>
       </c>
-      <c r="M3" s="19">
+      <c r="N3" s="19">
         <f>AVERAGE(C3:L3)</f>
         <v>0.43058908200000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -28206,12 +28219,12 @@
       <c r="L4" s="28">
         <v>0.44540229999999997</v>
       </c>
-      <c r="M4" s="19">
+      <c r="N4" s="19">
         <f>AVERAGE(C4:L4)</f>
         <v>0.45187140700000006</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -28248,12 +28261,12 @@
       <c r="L5" s="28">
         <v>0.37643678000000003</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="19">
         <f>AVERAGE(C5:L5)</f>
         <v>0.50166666500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
@@ -28290,12 +28303,12 @@
       <c r="L6" s="28">
         <v>0.53448275999999995</v>
       </c>
-      <c r="M6" s="19">
+      <c r="N6" s="19">
         <f>AVERAGE(C6:L6)</f>
         <v>0.45662715600000003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
@@ -28332,12 +28345,12 @@
       <c r="L7" s="32">
         <v>0.51436782000000003</v>
       </c>
-      <c r="M7" s="19">
+      <c r="N7" s="19">
         <f>AVERAGE(C7:L7)</f>
         <v>0.45360272899999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="19">
         <f>AVERAGE(C3:C7)</f>
         <v>0.51149425199999998</v>
@@ -28378,19 +28391,19 @@
         <f t="shared" si="0"/>
         <v>0.49482758799999998</v>
       </c>
-      <c r="M8" s="33">
-        <f>AVERAGE(M3:M7)</f>
+      <c r="N8" s="33">
+        <f>AVERAGE(N3:N7)</f>
         <v>0.45887140780000008</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J9" s="20"/>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
@@ -28399,7 +28412,7 @@
       </c>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
@@ -28436,12 +28449,12 @@
       <c r="L12" s="24">
         <v>0.77485380000000004</v>
       </c>
-      <c r="M12" s="19">
+      <c r="N12" s="19">
         <f>AVERAGE(C12:L12)</f>
         <v>0.63382687199999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
@@ -28478,12 +28491,12 @@
       <c r="L13" s="28">
         <v>0.66081871000000003</v>
       </c>
-      <c r="M13" s="19">
+      <c r="N13" s="19">
         <f>AVERAGE(C13:L13)</f>
         <v>0.62993816800000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>0</v>
       </c>
@@ -28520,12 +28533,12 @@
       <c r="L14" s="28">
         <v>0.58479532000000001</v>
       </c>
-      <c r="M14" s="19">
+      <c r="N14" s="19">
         <f>AVERAGE(C14:L14)</f>
         <v>0.68756471900000005</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
@@ -28562,12 +28575,12 @@
       <c r="L15" s="28">
         <v>0.78070174999999997</v>
       </c>
-      <c r="M15" s="19">
+      <c r="N15" s="19">
         <f>AVERAGE(C15:L15)</f>
         <v>0.66056542600000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
@@ -28604,12 +28617,12 @@
       <c r="L16" s="32">
         <v>0.66666667000000002</v>
       </c>
-      <c r="M16" s="19">
+      <c r="N16" s="19">
         <f>AVERAGE(C16:L16)</f>
         <v>0.64766826700000002</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="C17" s="19">
         <f>AVERAGE(C12:C16)</f>
         <v>0.77251461999999993</v>
@@ -28650,18 +28663,18 @@
         <f t="shared" ref="L17" si="8">AVERAGE(L12:L16)</f>
         <v>0.69356725000000008</v>
       </c>
-      <c r="M17" s="33">
-        <f>AVERAGE(M12:M16)</f>
+      <c r="N17" s="33">
+        <f>AVERAGE(N12:N16)</f>
         <v>0.65191269039999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>6</v>
       </c>
@@ -28670,7 +28683,7 @@
       </c>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
@@ -28707,12 +28720,12 @@
       <c r="L21" s="24">
         <v>0.90476190000000001</v>
       </c>
-      <c r="M21" s="19">
+      <c r="N21" s="19">
         <f>AVERAGE(C21:L21)</f>
         <v>0.7633116860000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
@@ -28749,12 +28762,12 @@
       <c r="L22" s="28">
         <v>0.74404762000000002</v>
       </c>
-      <c r="M22" s="19">
+      <c r="N22" s="19">
         <f>AVERAGE(C22:L22)</f>
         <v>0.74131493799999981</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>0</v>
       </c>
@@ -28791,12 +28804,12 @@
       <c r="L23" s="28">
         <v>0.72023809999999999</v>
       </c>
-      <c r="M23" s="19">
+      <c r="N23" s="19">
         <f>AVERAGE(C23:L23)</f>
         <v>0.8038419899999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>0</v>
       </c>
@@ -28833,12 +28846,12 @@
       <c r="L24" s="28">
         <v>0.91964285999999995</v>
       </c>
-      <c r="M24" s="19">
+      <c r="N24" s="19">
         <f>AVERAGE(C24:L24)</f>
         <v>0.77148268399999986</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>0</v>
       </c>
@@ -28875,12 +28888,12 @@
       <c r="L25" s="32">
         <v>0.81547619000000005</v>
       </c>
-      <c r="M25" s="19">
+      <c r="N25" s="19">
         <f>AVERAGE(C25:L25)</f>
         <v>0.77251082299999996</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C26" s="19">
         <f>AVERAGE(C21:C25)</f>
         <v>0.86726190400000003</v>
@@ -28921,18 +28934,18 @@
         <f t="shared" ref="L26" si="16">AVERAGE(L21:L25)</f>
         <v>0.82083333399999991</v>
       </c>
-      <c r="M26" s="33">
-        <f>AVERAGE(M21:M25)</f>
+      <c r="N26" s="33">
+        <f>AVERAGE(N21:N25)</f>
         <v>0.77049242419999986</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
@@ -28941,7 +28954,7 @@
       </c>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>0</v>
       </c>
@@ -28978,12 +28991,12 @@
       <c r="L30" s="24">
         <v>0.96969696999999999</v>
       </c>
-      <c r="M30" s="19">
+      <c r="N30" s="19">
         <f>AVERAGE(C30:L30)</f>
         <v>0.84510134399999992</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>0</v>
       </c>
@@ -29020,12 +29033,12 @@
       <c r="L31" s="28">
         <v>0.78181818000000003</v>
       </c>
-      <c r="M31" s="19">
+      <c r="N31" s="19">
         <f>AVERAGE(C31:L31)</f>
         <v>0.82511137899999998</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>0</v>
       </c>
@@ -29062,12 +29075,12 @@
       <c r="L32" s="28">
         <v>0.82121211999999999</v>
       </c>
-      <c r="M32" s="19">
+      <c r="N32" s="19">
         <f>AVERAGE(C32:L32)</f>
         <v>0.85351796099999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>0</v>
       </c>
@@ -29104,12 +29117,12 @@
       <c r="L33" s="28">
         <v>0.97272727000000003</v>
       </c>
-      <c r="M33" s="19">
+      <c r="N33" s="19">
         <f>AVERAGE(C33:L33)</f>
         <v>0.84070640100000005</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
@@ -29146,12 +29159,12 @@
       <c r="L34" s="32">
         <v>0.91515152</v>
       </c>
-      <c r="M34" s="19">
+      <c r="N34" s="19">
         <f>AVERAGE(C34:L34)</f>
         <v>0.85188440700000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="C35" s="19">
         <f>AVERAGE(C30:C34)</f>
         <v>0.90121212199999989</v>
@@ -29192,18 +29205,18 @@
         <f t="shared" ref="L35" si="24">AVERAGE(L30:L34)</f>
         <v>0.89212121199999994</v>
       </c>
-      <c r="M35" s="33">
-        <f>AVERAGE(M30:M34)</f>
+      <c r="N35" s="33">
+        <f>AVERAGE(N30:N34)</f>
         <v>0.84326429839999995</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>10</v>
       </c>
@@ -29212,7 +29225,7 @@
       </c>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>0</v>
       </c>
@@ -29249,12 +29262,12 @@
       <c r="L39" s="24">
         <v>0.98456790000000005</v>
       </c>
-      <c r="M39" s="19">
+      <c r="N39" s="19">
         <f>AVERAGE(C39:L39)</f>
         <v>0.88612362299999992</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>0</v>
       </c>
@@ -29291,12 +29304,12 @@
       <c r="L40" s="28">
         <v>0.79012346</v>
       </c>
-      <c r="M40" s="19">
+      <c r="N40" s="19">
         <f>AVERAGE(C40:L40)</f>
         <v>0.86783032999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>0</v>
       </c>
@@ -29333,12 +29346,12 @@
       <c r="L41" s="28">
         <v>0.90740741000000003</v>
       </c>
-      <c r="M41" s="19">
+      <c r="N41" s="19">
         <f>AVERAGE(C41:L41)</f>
         <v>0.89306389599999991</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>0</v>
       </c>
@@ -29375,12 +29388,12 @@
       <c r="L42" s="28">
         <v>0.98765431999999997</v>
       </c>
-      <c r="M42" s="19">
+      <c r="N42" s="19">
         <f>AVERAGE(C42:L42)</f>
         <v>0.88517267200000005</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>0</v>
       </c>
@@ -29417,12 +29430,12 @@
       <c r="L43" s="32">
         <v>0.95061728000000001</v>
       </c>
-      <c r="M43" s="19">
+      <c r="N43" s="19">
         <f>AVERAGE(C43:L43)</f>
         <v>0.88893476699999996</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C44" s="19">
         <f>AVERAGE(C39:C43)</f>
         <v>0.93703703599999988</v>
@@ -29463,13 +29476,543 @@
         <f t="shared" ref="L44" si="32">AVERAGE(L39:L43)</f>
         <v>0.92407407399999997</v>
       </c>
-      <c r="M44" s="33">
-        <f>AVERAGE(M39:M43)</f>
+      <c r="N44" s="33">
+        <f>AVERAGE(N39:N43)</f>
         <v>0.88422505759999992</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J45" s="20"/>
+    </row>
+    <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="21">
+        <v>1</v>
+      </c>
+      <c r="D48" s="22">
+        <v>1</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0.906667</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0.72426500000000005</v>
+      </c>
+      <c r="H48" s="22">
+        <v>1</v>
+      </c>
+      <c r="I48" s="22">
+        <v>1</v>
+      </c>
+      <c r="J48" s="22">
+        <v>0.99666699999999997</v>
+      </c>
+      <c r="K48" s="22">
+        <v>0.87333300000000003</v>
+      </c>
+      <c r="L48" s="24">
+        <v>1</v>
+      </c>
+      <c r="N48" s="19">
+        <f>AVERAGE(C48:L48)</f>
+        <v>0.95009320000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="25">
+        <v>1</v>
+      </c>
+      <c r="D49" s="26">
+        <v>1</v>
+      </c>
+      <c r="E49" s="26">
+        <v>0.62333300000000003</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0.98666699999999996</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0.99632399999999999</v>
+      </c>
+      <c r="H49" s="26">
+        <v>1</v>
+      </c>
+      <c r="I49" s="26">
+        <v>1</v>
+      </c>
+      <c r="J49" s="26">
+        <v>1</v>
+      </c>
+      <c r="K49" s="26">
+        <v>1</v>
+      </c>
+      <c r="L49" s="28">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19">
+        <f>AVERAGE(C49:L49)</f>
+        <v>0.96063240000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1</v>
+      </c>
+      <c r="D50" s="26">
+        <v>1</v>
+      </c>
+      <c r="E50" s="26">
+        <v>0.93333299999999997</v>
+      </c>
+      <c r="F50" s="26">
+        <v>1</v>
+      </c>
+      <c r="G50" s="26">
+        <v>1</v>
+      </c>
+      <c r="H50" s="26">
+        <v>1</v>
+      </c>
+      <c r="I50" s="26">
+        <v>0.82666700000000004</v>
+      </c>
+      <c r="J50" s="26">
+        <v>1</v>
+      </c>
+      <c r="K50" s="26">
+        <v>0.99666699999999997</v>
+      </c>
+      <c r="L50" s="28">
+        <v>1</v>
+      </c>
+      <c r="N50" s="19">
+        <f>AVERAGE(C50:L50)</f>
+        <v>0.9756667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.96666700000000005</v>
+      </c>
+      <c r="D51" s="26">
+        <v>1</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0.99333300000000002</v>
+      </c>
+      <c r="F51" s="26">
+        <v>1</v>
+      </c>
+      <c r="G51" s="26">
+        <v>1</v>
+      </c>
+      <c r="H51" s="26">
+        <v>1</v>
+      </c>
+      <c r="I51" s="26">
+        <v>0.60333300000000001</v>
+      </c>
+      <c r="J51" s="26">
+        <v>1</v>
+      </c>
+      <c r="K51" s="26">
+        <v>1</v>
+      </c>
+      <c r="L51" s="28">
+        <v>1</v>
+      </c>
+      <c r="N51" s="19">
+        <f>AVERAGE(C51:L51)</f>
+        <v>0.95633330000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="29">
+        <v>1</v>
+      </c>
+      <c r="D52" s="30">
+        <v>0.75666699999999998</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0.98</v>
+      </c>
+      <c r="F52" s="30">
+        <v>1</v>
+      </c>
+      <c r="G52" s="30">
+        <v>1</v>
+      </c>
+      <c r="H52" s="30">
+        <v>1</v>
+      </c>
+      <c r="I52" s="30">
+        <v>0.83666700000000005</v>
+      </c>
+      <c r="J52" s="30">
+        <v>1</v>
+      </c>
+      <c r="K52" s="30">
+        <v>1</v>
+      </c>
+      <c r="L52" s="32">
+        <v>0.99666699999999997</v>
+      </c>
+      <c r="N52" s="19">
+        <f>AVERAGE(C52:L52)</f>
+        <v>0.95700009999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C53" s="19">
+        <f>AVERAGE(C48:C52)</f>
+        <v>0.99333340000000003</v>
+      </c>
+      <c r="D53" s="19">
+        <f>AVERAGE(D48:D52)</f>
+        <v>0.9513334</v>
+      </c>
+      <c r="E53" s="19">
+        <f t="shared" ref="E53:L53" si="33">AVERAGE(E48:E52)</f>
+        <v>0.88733320000000016</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="33"/>
+        <v>0.99733339999999993</v>
+      </c>
+      <c r="G53" s="19">
+        <f t="shared" si="33"/>
+        <v>0.94411780000000012</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="19">
+        <f t="shared" si="33"/>
+        <v>0.85333340000000002</v>
+      </c>
+      <c r="J53" s="20">
+        <f t="shared" si="33"/>
+        <v>0.99933340000000004</v>
+      </c>
+      <c r="K53" s="19">
+        <f t="shared" si="33"/>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="L53" s="19">
+        <f t="shared" si="33"/>
+        <v>0.99933340000000004</v>
+      </c>
+      <c r="N53" s="33">
+        <f>AVERAGE(N48:N52)</f>
+        <v>0.95994514000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="21">
+        <v>1</v>
+      </c>
+      <c r="D57" s="22">
+        <v>1</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0.99166699999999997</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1</v>
+      </c>
+      <c r="G57" s="22">
+        <v>1</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0.99583299999999997</v>
+      </c>
+      <c r="I57" s="22">
+        <v>1</v>
+      </c>
+      <c r="J57" s="22">
+        <v>1</v>
+      </c>
+      <c r="K57" s="22">
+        <v>0.89166699999999999</v>
+      </c>
+      <c r="L57" s="24">
+        <v>1</v>
+      </c>
+      <c r="N57" s="19">
+        <f>AVERAGE(C57:L57)</f>
+        <v>0.98791669999999987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="25">
+        <v>1</v>
+      </c>
+      <c r="D58" s="26">
+        <v>1</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0.99583299999999997</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="G58" s="26">
+        <v>1</v>
+      </c>
+      <c r="H58" s="26">
+        <v>1</v>
+      </c>
+      <c r="I58" s="26">
+        <v>1</v>
+      </c>
+      <c r="J58" s="26">
+        <v>1</v>
+      </c>
+      <c r="K58" s="26">
+        <v>1</v>
+      </c>
+      <c r="L58" s="28">
+        <v>1</v>
+      </c>
+      <c r="N58" s="19">
+        <f>AVERAGE(C58:L58)</f>
+        <v>0.99833329999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="25">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26">
+        <v>1</v>
+      </c>
+      <c r="E59" s="26">
+        <v>1</v>
+      </c>
+      <c r="F59" s="26">
+        <v>1</v>
+      </c>
+      <c r="G59" s="26">
+        <v>1</v>
+      </c>
+      <c r="H59" s="26">
+        <v>1</v>
+      </c>
+      <c r="I59" s="26">
+        <v>1</v>
+      </c>
+      <c r="J59" s="26">
+        <v>1</v>
+      </c>
+      <c r="K59" s="26">
+        <v>1</v>
+      </c>
+      <c r="L59" s="28">
+        <v>1</v>
+      </c>
+      <c r="N59" s="19">
+        <f>AVERAGE(C59:L59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="25">
+        <v>1</v>
+      </c>
+      <c r="D60" s="26">
+        <v>1</v>
+      </c>
+      <c r="E60" s="26">
+        <v>1</v>
+      </c>
+      <c r="F60" s="26">
+        <v>1</v>
+      </c>
+      <c r="G60" s="26">
+        <v>1</v>
+      </c>
+      <c r="H60" s="26">
+        <v>1</v>
+      </c>
+      <c r="I60" s="26">
+        <v>0.95833299999999999</v>
+      </c>
+      <c r="J60" s="26">
+        <v>1</v>
+      </c>
+      <c r="K60" s="26">
+        <v>1</v>
+      </c>
+      <c r="L60" s="28">
+        <v>1</v>
+      </c>
+      <c r="N60" s="19">
+        <f>AVERAGE(C60:L60)</f>
+        <v>0.99583329999999992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+      <c r="D61" s="30">
+        <v>0.92083300000000001</v>
+      </c>
+      <c r="E61" s="30">
+        <v>1</v>
+      </c>
+      <c r="F61" s="30">
+        <v>1</v>
+      </c>
+      <c r="G61" s="30">
+        <v>1</v>
+      </c>
+      <c r="H61" s="30">
+        <v>1</v>
+      </c>
+      <c r="I61" s="30">
+        <v>1</v>
+      </c>
+      <c r="J61" s="30">
+        <v>1</v>
+      </c>
+      <c r="K61" s="30">
+        <v>1</v>
+      </c>
+      <c r="L61" s="32">
+        <v>1</v>
+      </c>
+      <c r="N61" s="19">
+        <f>AVERAGE(C61:L61)</f>
+        <v>0.9920833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="19">
+        <f>AVERAGE(C57:C61)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="19">
+        <f>AVERAGE(D57:D61)</f>
+        <v>0.9841666</v>
+      </c>
+      <c r="E62" s="19">
+        <f t="shared" ref="E62:L62" si="34">AVERAGE(E57:E61)</f>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="F62" s="19">
+        <f t="shared" si="34"/>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="G62" s="19">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="19">
+        <f t="shared" si="34"/>
+        <v>0.99916660000000002</v>
+      </c>
+      <c r="I62" s="19">
+        <f t="shared" si="34"/>
+        <v>0.99166659999999995</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="19">
+        <f t="shared" si="34"/>
+        <v>0.97833340000000002</v>
+      </c>
+      <c r="L62" s="19">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="N62" s="33">
+        <f>AVERAGE(N57:N61)</f>
+        <v>0.99483332000000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35076,3583 +35619,3593 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="15"/>
+    <col min="1" max="1" width="10.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9" style="19"/>
+    <col min="10" max="10" width="9" style="34"/>
+    <col min="11" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="19">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="19">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="19">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="19">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="19">
         <v>7</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="34">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="19">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="21">
         <v>0.23333300000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="22">
         <v>0.6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="22">
         <v>0.36666700000000002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="22">
         <v>0.63333300000000003</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="22">
         <v>0.8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="22">
         <v>0.86666699999999997</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="22">
         <v>0.33333299999999999</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="35">
         <v>0.56666700000000003</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="22">
         <v>0.466667</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="24">
         <v>0.466667</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3">
+      <c r="M3" s="26"/>
+      <c r="N3" s="19">
         <f>AVERAGE(C3:L3)</f>
         <v>0.53333340000000007</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="25">
         <v>0.15625</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="26">
         <v>0.61290299999999998</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="26">
         <v>0.45161299999999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="26">
         <v>0.54838699999999996</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="26">
         <v>0.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="26">
         <v>9.6773999999999999E-2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="36">
         <v>0.74193500000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="26">
         <v>0.58064499999999997</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="28">
         <v>0.51612899999999995</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4">
+      <c r="M4" s="26"/>
+      <c r="N4" s="19">
         <f>AVERAGE(C4:L4)</f>
         <v>0.53433459999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="25">
         <v>0.25</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="26">
         <v>0.483871</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="26">
         <v>0.77419400000000005</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="26">
         <v>0.35483900000000002</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="26">
         <v>0.79166700000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="26">
         <v>0.6875</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="26">
         <v>0.38709700000000002</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="36">
         <v>0.64516099999999998</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="26">
         <v>0.51612899999999995</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="28">
         <v>0.45161299999999999</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5">
+      <c r="M5" s="26"/>
+      <c r="N5" s="19">
         <f>AVERAGE(C5:L5)</f>
         <v>0.53420709999999993</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="25">
         <v>0.125</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="26">
         <v>0.61290299999999998</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="26">
         <v>0.41935499999999998</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="26">
         <v>0.58064499999999997</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="26">
         <v>0.79166700000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="26">
         <v>0.25</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="36">
         <v>0.61290299999999998</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="26">
         <v>0.51612899999999995</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="28">
         <v>0.41935499999999998</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6">
+      <c r="M6" s="26"/>
+      <c r="N6" s="19">
         <f>AVERAGE(C6:L6)</f>
         <v>0.51989249999999998</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="29">
         <v>0.125</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="30">
         <v>0.51612899999999995</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="30">
         <v>0.51612899999999995</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="30">
         <v>0.54838699999999996</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="30">
         <v>0.875</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="30">
         <v>0.87096799999999996</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="30">
         <v>0.290323</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="37">
         <v>0.75</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="30">
         <v>0.61290299999999998</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="32">
         <v>0.64516099999999998</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7">
+      <c r="M7" s="26"/>
+      <c r="N7" s="19">
         <f>AVERAGE(C7:L7)</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8">
+      <c r="C8" s="19">
         <f>AVERAGE(C3:C7)</f>
         <v>0.17791660000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
         <f>AVERAGE(D3:D7)</f>
         <v>0.56516119999999992</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <f t="shared" ref="E8:L8" si="0">AVERAGE(E3:E7)</f>
         <v>0.50559160000000003</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>0.53311819999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
         <v>0.81166680000000002</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>0.82696259999999988</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>0.27150540000000001</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="34">
         <f t="shared" si="0"/>
         <v>0.66333319999999996</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="19">
         <f t="shared" si="0"/>
         <v>0.53849459999999993</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
         <v>0.49978499999999998</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="33">
         <f>AVERAGE(N3:N7)</f>
         <v>0.53935352000000003</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N9" s="1"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="21">
         <v>0.33333299999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="22">
         <v>0.73333300000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="22">
         <v>0.36666700000000002</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="22">
         <v>0.66666700000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="22">
         <v>0.9</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="22">
         <v>0.9</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="22">
         <v>0.4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="35">
         <v>0.8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="22">
         <v>0.9</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12">
+      <c r="M12" s="26"/>
+      <c r="N12" s="19">
         <f>AVERAGE(C12:L12)</f>
         <v>0.66666670000000006</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="25">
         <v>0.25</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="26">
         <v>0.709677</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="26">
         <v>0.67741899999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="26">
         <v>0.709677</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="26">
         <v>0.96</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="26">
         <v>3.2258000000000002E-2</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="36">
         <v>0.74193500000000001</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="26">
         <v>0.74193500000000001</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="28">
         <v>0.83870999999999996</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13">
+      <c r="M13" s="26"/>
+      <c r="N13" s="19">
         <f>AVERAGE(C13:L13)</f>
         <v>0.66293529999999989</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="25">
         <v>0.40625</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="26">
         <v>0.64516099999999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="26">
         <v>0.67741899999999999</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="26">
         <v>0.54838699999999996</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="26">
         <v>0.875</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="26">
         <v>0.96875</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="26">
         <v>0.290323</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="36">
         <v>0.90322599999999997</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="26">
         <v>0.77419400000000005</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="28">
         <v>0.80645199999999995</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14">
+      <c r="M14" s="26"/>
+      <c r="N14" s="19">
         <f>AVERAGE(C14:L14)</f>
         <v>0.68951620000000013</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="25">
         <v>0.34375</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="26">
         <v>0.51612899999999995</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="26">
         <v>0.45161299999999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="26">
         <v>0.80645199999999995</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="26">
         <v>0.95833299999999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="26">
         <v>0.25</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="36">
         <v>0.83870999999999996</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="26">
         <v>0.74193500000000001</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="28">
         <v>0.80645199999999995</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15">
+      <c r="M15" s="26"/>
+      <c r="N15" s="19">
         <f>AVERAGE(C15:L15)</f>
         <v>0.66811159999999992</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="29">
         <v>0.15625</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="30">
         <v>0.61290299999999998</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="30">
         <v>0.61290299999999998</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="30">
         <v>0.61290299999999998</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="30">
         <v>0.95833299999999999</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="30">
         <v>0.93548399999999998</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="30">
         <v>0.54838699999999996</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="37">
         <v>0.90625</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="30">
         <v>0.709677</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="32">
         <v>0.83870999999999996</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16">
+      <c r="M16" s="26"/>
+      <c r="N16" s="19">
         <f>AVERAGE(C16:L16)</f>
         <v>0.68918000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C17">
+      <c r="C17" s="19">
         <f>AVERAGE(C12:C16)</f>
         <v>0.29791660000000003</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="19">
         <f>AVERAGE(D12:D16)</f>
         <v>0.64344059999999992</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="19">
         <f t="shared" ref="E17:L17" si="1">AVERAGE(E12:E16)</f>
         <v>0.55720419999999993</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="19">
         <f t="shared" si="1"/>
         <v>0.6688172</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>0.93033319999999997</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="19">
         <f t="shared" si="1"/>
         <v>0.9479436</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>0.30419359999999995</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="34">
         <f t="shared" si="1"/>
         <v>0.83802419999999989</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="19">
         <f t="shared" si="1"/>
         <v>0.77354820000000013</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="19">
         <f t="shared" si="1"/>
         <v>0.79139819999999994</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="33">
         <f>AVERAGE(N12:N16)</f>
         <v>0.67528196000000007</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="21">
         <v>0.4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="22">
         <v>0.86666699999999997</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="22">
         <v>0.43333300000000002</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="22">
         <v>0.86666699999999997</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="22">
         <v>0.96666700000000005</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="22">
         <v>0.96666700000000005</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="22">
         <v>0.466667</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="35">
         <v>0.83333299999999999</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="22">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="24">
         <v>0.83333299999999999</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21">
+      <c r="M21" s="26"/>
+      <c r="N21" s="19">
         <f>AVERAGE(C21:L21)</f>
         <v>0.76333339999999994</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="25">
         <v>0.40625</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="26">
         <v>0.77419400000000005</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="26">
         <v>0.709677</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="26">
         <v>1</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="26">
         <v>0.90322599999999997</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="26">
         <v>0</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="36">
         <v>0.87096799999999996</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="28">
         <v>0.87096799999999996</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22">
+      <c r="M22" s="26"/>
+      <c r="N22" s="19">
         <f>AVERAGE(C22:L22)</f>
         <v>0.72127029999999992</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="25">
         <v>0.46875</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="26">
         <v>0.709677</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="26">
         <v>0.709677</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="26">
         <v>0.74193500000000001</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="26">
         <v>0.91666700000000001</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="26">
         <v>1</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="26">
         <v>0.38709700000000002</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="36">
         <v>0.93548399999999998</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="28">
         <v>0.90322599999999997</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23">
+      <c r="M23" s="26"/>
+      <c r="N23" s="19">
         <f>AVERAGE(C23:L23)</f>
         <v>0.76434809999999997</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="25">
         <v>0.34375</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="26">
         <v>0.64516099999999998</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="26">
         <v>0.58064499999999997</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="26">
         <v>0.80645199999999995</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="26">
         <v>0.95833299999999999</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="26">
         <v>1</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="26">
         <v>0.5</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="36">
         <v>0.87096799999999996</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="28">
         <v>0.93548399999999998</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24">
+      <c r="M24" s="26"/>
+      <c r="N24" s="19">
         <f>AVERAGE(C24:L24)</f>
         <v>0.7511760999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="29">
         <v>0.21875</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="30">
         <v>0.64516099999999998</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="30">
         <v>0.77419400000000005</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="30">
         <v>0.709677</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="30">
         <v>1</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="30">
         <v>0.96774199999999999</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="30">
         <v>0.53125</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="37">
         <v>0.93548399999999998</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="30">
         <v>0.87096799999999996</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="32">
         <v>1</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25">
+      <c r="M25" s="26"/>
+      <c r="N25" s="19">
         <f>AVERAGE(C25:L25)</f>
         <v>0.76532259999999996</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C26">
+      <c r="C26" s="19">
         <f>AVERAGE(C21:C25)</f>
         <v>0.36749999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="19">
         <f>AVERAGE(D21:D25)</f>
         <v>0.72817200000000004</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="19">
         <f t="shared" ref="E26:L26" si="2">AVERAGE(E21:E25)</f>
         <v>0.6415052</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="19">
         <f t="shared" si="2"/>
         <v>0.79268820000000006</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="19">
         <f t="shared" si="2"/>
         <v>0.96833340000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="19">
         <f t="shared" si="2"/>
         <v>0.96752700000000014</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="19">
         <f t="shared" si="2"/>
         <v>0.37700279999999997</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="34">
         <f t="shared" si="2"/>
         <v>0.88924740000000002</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="19">
         <f t="shared" si="2"/>
         <v>0.89032279999999986</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="19">
         <f t="shared" si="2"/>
         <v>0.90860220000000003</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="33">
         <f>AVERAGE(N21:N25)</f>
         <v>0.75309009999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="21">
         <v>0.56666700000000003</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="22">
         <v>0.93333299999999997</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="22">
         <v>0.53333299999999995</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="22">
         <v>0.9</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="22">
         <v>0.93333299999999997</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="22">
         <v>1</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="22">
         <v>0.53333299999999995</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="35">
         <v>1</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="22">
         <v>1</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="24">
         <v>0.86666699999999997</v>
       </c>
-      <c r="M30" s="6"/>
-      <c r="N30">
+      <c r="M30" s="26"/>
+      <c r="N30" s="19">
         <f>AVERAGE(C30:L30)</f>
         <v>0.82666659999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="25">
         <v>0.46875</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="26">
         <v>0.80645199999999995</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="26">
         <v>0.80645199999999995</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="26">
         <v>1</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="26">
         <v>0</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="36">
         <v>0.93548399999999998</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="28">
         <v>0.9375</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31">
+      <c r="M31" s="26"/>
+      <c r="N31" s="19">
         <f>AVERAGE(C31:L31)</f>
         <v>0.75997999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="25">
         <v>0.46875</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="26">
         <v>0.77419400000000005</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="26">
         <v>0.90322599999999997</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="26">
         <v>0.875</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="26">
         <v>0.96875</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="26">
         <v>0.45161299999999999</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="36">
         <v>1</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="28">
         <v>0.90322599999999997</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32">
+      <c r="M32" s="26"/>
+      <c r="N32" s="19">
         <f>AVERAGE(C32:L32)</f>
         <v>0.81512110000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="25">
         <v>0.53125</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="26">
         <v>0.54838699999999996</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="26">
         <v>0.90322599999999997</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="26">
         <v>1</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="26">
         <v>1</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="26">
         <v>0.53125</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="36">
         <v>1</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="28">
         <v>0.90322599999999997</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33">
+      <c r="M33" s="26"/>
+      <c r="N33" s="19">
         <f>AVERAGE(C33:L33)</f>
         <v>0.82560489999999986</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="29">
         <v>6.25E-2</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="30">
         <v>0.80645199999999995</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="30">
         <v>0.83870999999999996</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="30">
         <v>0.80645199999999995</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="30">
         <v>1</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="30">
         <v>1</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="30">
         <v>0.5</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="37">
         <v>1</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="30">
         <v>0.96774199999999999</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="32">
         <v>1</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34">
+      <c r="M34" s="26"/>
+      <c r="N34" s="19">
         <f>AVERAGE(C34:L34)</f>
         <v>0.79818560000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C35">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="19">
         <f>AVERAGE(C30:C34)</f>
         <v>0.41958339999999994</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="19">
         <f>AVERAGE(D30:D34)</f>
         <v>0.85763459999999991</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="19">
         <f t="shared" ref="E35:L35" si="3">AVERAGE(E30:E34)</f>
         <v>0.70021519999999993</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="19">
         <f t="shared" si="3"/>
         <v>0.86387119999999995</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="19">
         <f t="shared" si="3"/>
         <v>0.96166660000000004</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="19">
         <f t="shared" si="3"/>
         <v>0.98729839999999991</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="19">
         <f t="shared" si="3"/>
         <v>0.40323919999999996</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="34">
         <f t="shared" si="3"/>
         <v>0.9870968</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="19">
         <f t="shared" si="3"/>
         <v>0.94838719999999999</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="19">
         <f t="shared" si="3"/>
         <v>0.92212379999999994</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="33">
         <f>AVERAGE(N30:N34)</f>
         <v>0.80511164000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="21">
         <v>0.63333300000000003</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="22">
         <v>0.96666700000000005</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="22">
         <v>0.5</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="22">
         <v>0.9</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="22">
         <v>0.93333299999999997</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="22">
         <v>1</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="22">
         <v>0.6</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="35">
         <v>1</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="22">
         <v>1</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="24">
         <v>0.86666699999999997</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39">
+      <c r="M39" s="26"/>
+      <c r="N39" s="19">
         <f>AVERAGE(C39:L39)</f>
         <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="25">
         <v>0.5</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="26">
         <v>0.90322599999999997</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="26">
         <v>1</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="26">
         <v>0</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="36">
         <v>0.96774199999999999</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="26">
         <v>0.90625</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="28">
         <v>0.96774199999999999</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40">
+      <c r="M40" s="26"/>
+      <c r="N40" s="19">
         <f>AVERAGE(C40:L40)</f>
         <v>0.80191540000000006</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="25">
         <v>0.4375</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="26">
         <v>0.83333299999999999</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="26">
         <v>0.9375</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="26">
         <v>0.51612899999999995</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="36">
         <v>0.96774199999999999</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="26">
         <v>1</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="28">
         <v>0.9375</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41">
+      <c r="M41" s="26"/>
+      <c r="N41" s="19">
         <f>AVERAGE(C41:L41)</f>
         <v>0.84038980000000019</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="25">
         <v>0.53125</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="26">
         <v>0.90322599999999997</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="26">
         <v>0.58064499999999997</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="26">
         <v>1</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="26">
         <v>1</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="26">
         <v>0.71875</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="36">
         <v>1</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="28">
         <v>0.96774199999999999</v>
       </c>
-      <c r="M42" s="6"/>
-      <c r="N42">
+      <c r="M42" s="26"/>
+      <c r="N42" s="19">
         <f>AVERAGE(C42:L42)</f>
         <v>0.86048389999999997</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="29">
         <v>0</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="30">
         <v>0.96774199999999999</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="30">
         <v>0.87096799999999996</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="30">
         <v>1</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="30">
         <v>1</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="30">
         <v>1</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="30">
         <v>0.46875</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="37">
         <v>1</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="30">
         <v>1</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="32">
         <v>1</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43">
+      <c r="M43" s="26"/>
+      <c r="N43" s="19">
         <f>AVERAGE(C43:L43)</f>
         <v>0.83074599999999987</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C44">
+      <c r="C44" s="19">
         <f>AVERAGE(C39:C43)</f>
         <v>0.42041659999999997</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="19">
         <f>AVERAGE(D39:D43)</f>
         <v>0.94172060000000002</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="19">
         <f t="shared" ref="E44:L44" si="4">AVERAGE(E39:E43)</f>
         <v>0.74516139999999997</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="19">
         <f t="shared" si="4"/>
         <v>0.93483879999999997</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="19">
         <f t="shared" si="4"/>
         <v>0.95333319999999999</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="19">
         <f t="shared" si="4"/>
         <v>0.98104839999999993</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="19">
         <f t="shared" si="4"/>
         <v>0.46072579999999996</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="34">
         <f t="shared" si="4"/>
         <v>0.9870968</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="19">
         <f t="shared" si="4"/>
         <v>0.97479839999999984</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="19">
         <f t="shared" si="4"/>
         <v>0.94793020000000006</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="33">
         <f>AVERAGE(N39:N43)</f>
         <v>0.83470701999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="47" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="21">
         <v>0.56666700000000003</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="22">
         <v>1</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="22">
         <v>0.53333299999999995</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="22">
         <v>0.9</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="22">
         <v>0.93333299999999997</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="22">
         <v>1</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="22">
         <v>0.6</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="35">
         <v>1</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="22">
         <v>1</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="24">
         <v>0.93333299999999997</v>
       </c>
-      <c r="M48" s="6"/>
-      <c r="N48">
+      <c r="M48" s="26"/>
+      <c r="N48" s="19">
         <f>AVERAGE(C48:L48)</f>
         <v>0.84666660000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="25">
         <v>0.59375</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="26">
         <v>1</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="26">
         <v>0.87096799999999996</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="26">
         <v>0.96875</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="26">
         <v>1</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="26">
         <v>1</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="26">
         <v>0</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="36">
         <v>1</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="28">
         <v>1</v>
       </c>
-      <c r="M49" s="6"/>
-      <c r="N49">
+      <c r="M49" s="26"/>
+      <c r="N49" s="19">
         <f>AVERAGE(C49:L49)</f>
         <v>0.83689520000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="25">
         <v>0.5625</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="26">
         <v>0.80645199999999995</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="26">
         <v>0.90625</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="26">
         <v>0.95652199999999998</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="26">
         <v>0.96875</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="26">
         <v>0.58064499999999997</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="36">
         <v>1</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="26">
         <v>1</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="28">
         <v>0.96875</v>
       </c>
-      <c r="M50" s="6"/>
-      <c r="N50">
+      <c r="M50" s="26"/>
+      <c r="N50" s="19">
         <f>AVERAGE(C50:L50)</f>
         <v>0.87176109999999984</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="25">
         <v>0.59375</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="26">
         <v>0.709677</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="26">
         <v>0.9375</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="26">
         <v>1</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="26">
         <v>1</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="26">
         <v>0.78125</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="36">
         <v>1</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="26">
         <v>1</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="28">
         <v>0.96875</v>
       </c>
-      <c r="M51" s="6"/>
-      <c r="N51">
+      <c r="M51" s="26"/>
+      <c r="N51" s="19">
         <f>AVERAGE(C51:L51)</f>
         <v>0.89264109999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="52" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="29">
         <v>3.125E-2</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="30">
         <v>0.90322599999999997</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="30">
         <v>0.83870999999999996</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="30">
         <v>1</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="30">
         <v>1</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="30">
         <v>1</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="30">
         <v>0.46875</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="37">
         <v>1</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="30">
         <v>1</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="32">
         <v>1</v>
       </c>
-      <c r="M52" s="6"/>
-      <c r="N52">
+      <c r="M52" s="26"/>
+      <c r="N52" s="19">
         <f>AVERAGE(C52:L52)</f>
         <v>0.82419359999999986</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C53">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="19">
         <f>AVERAGE(C48:C52)</f>
         <v>0.46958339999999998</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="19">
         <f>AVERAGE(D48:D52)</f>
         <v>0.96129039999999999</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="19">
         <f t="shared" ref="E53:L53" si="5">AVERAGE(E48:E52)</f>
         <v>0.75182799999999994</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="19">
         <f t="shared" si="5"/>
         <v>0.94250000000000012</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="19">
         <f t="shared" si="5"/>
         <v>0.97797099999999992</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="19">
         <f t="shared" si="5"/>
         <v>0.99375000000000002</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="19">
         <f t="shared" si="5"/>
         <v>0.48612900000000003</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="34">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="19">
         <f t="shared" si="5"/>
         <v>0.9870968</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="19">
         <f t="shared" si="5"/>
         <v>0.97416659999999999</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="33">
         <f>AVERAGE(N48:N52)</f>
         <v>0.85443152</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="21">
         <v>0.7</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="22">
         <v>1</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="22">
         <v>0.56666700000000003</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="22">
         <v>0.86666699999999997</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="22">
         <v>1</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="22">
         <v>1</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="22">
         <v>0.7</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="35">
         <v>1</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="22">
         <v>1</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="24">
         <v>0.93333299999999997</v>
       </c>
-      <c r="M57" s="6"/>
-      <c r="N57">
+      <c r="M57" s="26"/>
+      <c r="N57" s="19">
         <f>AVERAGE(C57:L57)</f>
         <v>0.87666670000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="25">
         <v>0.71875</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="26">
         <v>1</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="26">
         <v>0.90625</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="26">
         <v>1</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="26">
         <v>1</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="26">
         <v>1</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="26">
         <v>0</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="36">
         <v>1</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="26">
         <v>0.90322599999999997</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="28">
         <v>1</v>
       </c>
-      <c r="M58" s="6"/>
-      <c r="N58">
+      <c r="M58" s="26"/>
+      <c r="N58" s="19">
         <f>AVERAGE(C58:L58)</f>
         <v>0.85282259999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="25">
         <v>0.4375</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="26">
         <v>0.8125</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="26">
         <v>0.91304300000000005</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="26">
         <v>1</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="26">
         <v>0.709677</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="36">
         <v>1</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="26">
         <v>1</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="28">
         <v>0.96774199999999999</v>
       </c>
-      <c r="M59" s="6"/>
-      <c r="N59">
+      <c r="M59" s="26"/>
+      <c r="N59" s="19">
         <f>AVERAGE(C59:L59)</f>
         <v>0.87436880000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="25">
         <v>0.75</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="26">
         <v>0.75</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="26">
         <v>0.96774199999999999</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="26">
         <v>0.95652199999999998</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="26">
         <v>1</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="26">
         <v>0.75</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="36">
         <v>1</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="26">
         <v>1</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="28">
         <v>0.96774199999999999</v>
       </c>
-      <c r="M60" s="6"/>
-      <c r="N60">
+      <c r="M60" s="26"/>
+      <c r="N60" s="19">
         <f>AVERAGE(C60:L60)</f>
         <v>0.90774899999999992</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="29">
         <v>9.375E-2</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="30">
         <v>0.96774199999999999</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="30">
         <v>0.9375</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="30">
         <v>1</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="30">
         <v>1</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="30">
         <v>1</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="30">
         <v>0.5</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="37">
         <v>1</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="30">
         <v>1</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="32">
         <v>1</v>
       </c>
-      <c r="M61" s="6"/>
-      <c r="N61">
+      <c r="M61" s="26"/>
+      <c r="N61" s="19">
         <f>AVERAGE(C61:L61)</f>
         <v>0.84989919999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C62">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="19">
         <f>AVERAGE(C57:C61)</f>
         <v>0.54</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="19">
         <f>AVERAGE(D57:D61)</f>
         <v>0.96774199999999999</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="19">
         <f t="shared" ref="E62:L62" si="6">AVERAGE(E57:E61)</f>
         <v>0.79458339999999994</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="19">
         <f t="shared" si="6"/>
         <v>0.96043020000000001</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="19">
         <f t="shared" si="6"/>
         <v>0.97391299999999992</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="19">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="19">
         <f t="shared" si="6"/>
         <v>0.53193539999999995</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="34">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="19">
         <f t="shared" si="6"/>
         <v>0.98064519999999999</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="19">
         <f t="shared" si="6"/>
         <v>0.97376339999999995</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="33">
         <f>AVERAGE(N57:N61)</f>
         <v>0.87230126000000008</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="21">
         <v>0.73333300000000001</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="22">
         <v>1</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="22">
         <v>0.7</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="22">
         <v>0.96666700000000005</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="22">
         <v>1</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="22">
         <v>1</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="22">
         <v>0.83333299999999999</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="35">
         <v>1</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="22">
         <v>1</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="24">
         <v>1</v>
       </c>
-      <c r="M66" s="6"/>
-      <c r="N66">
+      <c r="M66" s="26"/>
+      <c r="N66" s="19">
         <f>AVERAGE(C66:L66)</f>
         <v>0.92333330000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="25">
         <v>0.6875</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="26">
         <v>1</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="26">
         <v>0.90625</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="26">
         <v>1</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="26">
         <v>1</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="26">
         <v>1</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="26">
         <v>0</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="36">
         <v>1</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="28">
         <v>1</v>
       </c>
-      <c r="M67" s="6"/>
-      <c r="N67">
+      <c r="M67" s="26"/>
+      <c r="N67" s="19">
         <f>AVERAGE(C67:L67)</f>
         <v>0.85292339999999989</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="25">
         <v>0.40625</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="26">
         <v>1</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="26">
         <v>0.96875</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="26">
         <v>1</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="26">
         <v>0.95652199999999998</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="26">
         <v>0.96875</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="26">
         <v>0.83870999999999996</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="36">
         <v>1</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="26">
         <v>1</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="28">
         <v>0.96774199999999999</v>
       </c>
-      <c r="M68" s="6"/>
-      <c r="N68">
+      <c r="M68" s="26"/>
+      <c r="N68" s="19">
         <f>AVERAGE(C68:L68)</f>
         <v>0.91067239999999983</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="25">
         <v>0.6875</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="26">
         <v>1</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="26">
         <v>0.875</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="26">
         <v>1</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="26">
         <v>1</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="26">
         <v>1</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="26">
         <v>0.78125</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="36">
         <v>1</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="26">
         <v>1</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="28">
         <v>1</v>
       </c>
-      <c r="M69" s="6"/>
-      <c r="N69">
+      <c r="M69" s="26"/>
+      <c r="N69" s="19">
         <f>AVERAGE(C69:L69)</f>
         <v>0.93437499999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="70" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="29">
         <v>0.125</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="30">
         <v>1</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="30">
         <v>0.90625</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="30">
         <v>1</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="30">
         <v>1</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="30">
         <v>1</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="30">
         <v>0.53125</v>
       </c>
-      <c r="J70" s="18">
+      <c r="J70" s="37">
         <v>1</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="30">
         <v>1</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="32">
         <v>1</v>
       </c>
-      <c r="M70" s="6"/>
-      <c r="N70">
+      <c r="M70" s="26"/>
+      <c r="N70" s="19">
         <f>AVERAGE(C70:L70)</f>
         <v>0.85624999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C71">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="19">
         <f>AVERAGE(C66:C70)</f>
         <v>0.52791659999999996</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="19">
         <f>AVERAGE(D66:D70)</f>
         <v>1</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="19">
         <f t="shared" ref="E71:L71" si="7">AVERAGE(E66:E70)</f>
         <v>0.87125000000000008</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="19">
         <f t="shared" si="7"/>
         <v>0.99333340000000003</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="19">
         <f t="shared" si="7"/>
         <v>0.99130439999999997</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="19">
         <f t="shared" si="7"/>
         <v>0.99375000000000002</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="19">
         <f t="shared" si="7"/>
         <v>0.59690860000000001</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="34">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="19">
         <f t="shared" si="7"/>
         <v>0.9870968</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="19">
         <f t="shared" si="7"/>
         <v>0.99354839999999989</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71" s="33">
         <f>AVERAGE(N66:N70)</f>
         <v>0.89551081999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="21">
         <v>0.83333299999999999</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="22">
         <v>1</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="22">
         <v>0.7</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="22">
         <v>1</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="22">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="22">
         <v>1</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="22">
         <v>0.73333300000000001</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="35">
         <v>1</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="22">
         <v>1</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="24">
         <v>1</v>
       </c>
-      <c r="M75" s="6"/>
-      <c r="N75">
+      <c r="M75" s="26"/>
+      <c r="N75" s="19">
         <f>AVERAGE(C75:L75)</f>
         <v>0.92666660000000012</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="25">
         <v>0.78125</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="26">
         <v>1</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="26">
         <v>0.875</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="26">
         <v>1</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="26">
         <v>1</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="26">
         <v>1</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="26">
         <v>0</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="36">
         <v>1</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="28">
         <v>1</v>
       </c>
-      <c r="M76" s="6"/>
-      <c r="N76">
+      <c r="M76" s="26"/>
+      <c r="N76" s="19">
         <f>AVERAGE(C76:L76)</f>
         <v>0.85917339999999986</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="25">
         <v>0.40625</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="26">
         <v>1</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="26">
         <v>0.9375</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="26">
         <v>1</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="26">
         <v>0.91304300000000005</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="26">
         <v>1</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="26">
         <v>0.77419400000000005</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="36">
         <v>1</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="26">
         <v>1</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="28">
         <v>1</v>
       </c>
-      <c r="M77" s="6"/>
-      <c r="N77">
+      <c r="M77" s="26"/>
+      <c r="N77" s="19">
         <f>AVERAGE(C77:L77)</f>
         <v>0.90309869999999992</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="25">
         <v>0.65625</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="26">
         <v>1</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="26">
         <v>0.96875</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="26">
         <v>1</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="26">
         <v>1</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="26">
         <v>1</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="26">
         <v>0.71875</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="36">
         <v>1</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="26">
         <v>1</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="28">
         <v>1</v>
       </c>
-      <c r="M78" s="6"/>
-      <c r="N78">
+      <c r="M78" s="26"/>
+      <c r="N78" s="19">
         <f>AVERAGE(C78:L78)</f>
         <v>0.93437499999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="29">
         <v>0.1875</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="30">
         <v>1</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="30">
         <v>0.90625</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="30">
         <v>1</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="30">
         <v>1</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="30">
         <v>1</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="30">
         <v>0.53125</v>
       </c>
-      <c r="J79" s="18">
+      <c r="J79" s="37">
         <v>1</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K79" s="30">
         <v>1</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="32">
         <v>1</v>
       </c>
-      <c r="M79" s="6"/>
-      <c r="N79">
+      <c r="M79" s="26"/>
+      <c r="N79" s="19">
         <f>AVERAGE(C79:L79)</f>
         <v>0.86250000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C80">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="19">
         <f>AVERAGE(C75:C79)</f>
         <v>0.5729166</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="19">
         <f>AVERAGE(D75:D79)</f>
         <v>1</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="19">
         <f t="shared" ref="E80:L80" si="8">AVERAGE(E75:E79)</f>
         <v>0.87750000000000006</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="19">
         <f t="shared" si="8"/>
         <v>0.98260860000000005</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="19">
         <f t="shared" si="8"/>
         <v>0.55150540000000003</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="34">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="19">
         <f t="shared" si="8"/>
         <v>0.9870968</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="19">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N80" s="33">
         <f>AVERAGE(N75:N79)</f>
         <v>0.89716273999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J81"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J82"/>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J81" s="19"/>
+    </row>
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="19"/>
     </row>
     <row r="83" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="21">
         <v>0.93333299999999997</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="22">
         <v>1</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="22">
         <v>0.73333300000000001</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="22">
         <v>1</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="22">
         <v>1</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="22">
         <v>1</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="22">
         <v>0.63333300000000003</v>
       </c>
-      <c r="J84" s="16">
+      <c r="J84" s="35">
         <v>1</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="22">
         <v>1</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="24">
         <v>1</v>
       </c>
-      <c r="M84" s="6"/>
-      <c r="N84">
+      <c r="M84" s="26"/>
+      <c r="N84" s="19">
         <f>AVERAGE(C84:L84)</f>
         <v>0.92999989999999999</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="25">
         <v>0.75</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="26">
         <v>1</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="26">
         <v>1</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="26">
         <v>1</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="26">
         <v>1</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="26">
         <v>0</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J85" s="36">
         <v>1</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="26">
         <v>0.9375</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="28">
         <v>1</v>
       </c>
-      <c r="M85" s="6"/>
-      <c r="N85">
+      <c r="M85" s="26"/>
+      <c r="N85" s="19">
         <f>AVERAGE(C85:L85)</f>
         <v>0.86229839999999991</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="25">
         <v>0.5</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="26">
         <v>1</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="26">
         <v>1</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="26">
         <v>1</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="26">
         <v>0.95454499999999998</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="26">
         <v>1</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="36">
         <v>1</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="26">
         <v>1</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="28">
         <v>1</v>
       </c>
-      <c r="M86" s="6"/>
-      <c r="N86">
+      <c r="M86" s="26"/>
+      <c r="N86" s="19">
         <f>AVERAGE(C86:L86)</f>
         <v>0.93900289999999986</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="25">
         <v>0.71875</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="26">
         <v>1</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="26">
         <v>0.93548399999999998</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="26">
         <v>1</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="26">
         <v>1</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="26">
         <v>1</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="26">
         <v>0.78125</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="36">
         <v>1</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="26">
         <v>1</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="28">
         <v>1</v>
       </c>
-      <c r="M87" s="6"/>
-      <c r="N87">
+      <c r="M87" s="26"/>
+      <c r="N87" s="19">
         <f>AVERAGE(C87:L87)</f>
         <v>0.94354839999999984</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="29">
         <v>0.1875</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="30">
         <v>1</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="30">
         <v>0.93548399999999998</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="30">
         <v>1</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="30">
         <v>1</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="30">
         <v>1</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="30">
         <v>0.5625</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J88" s="37">
         <v>1</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="30">
         <v>1</v>
       </c>
-      <c r="L88" s="10">
+      <c r="L88" s="32">
         <v>1</v>
       </c>
-      <c r="M88" s="6"/>
-      <c r="N88">
+      <c r="M88" s="26"/>
+      <c r="N88" s="19">
         <f>AVERAGE(C88:L88)</f>
         <v>0.86854839999999989</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C89">
+      <c r="C89" s="19">
         <f>AVERAGE(C84:C88)</f>
         <v>0.61791660000000004</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="19">
         <f>AVERAGE(D84:D88)</f>
         <v>1</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="19">
         <f t="shared" ref="E89:L89" si="9">AVERAGE(E84:E88)</f>
         <v>0.9079569999999999</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="19">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="19">
         <f t="shared" si="9"/>
         <v>0.99090899999999993</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="19">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="19">
         <f t="shared" si="9"/>
         <v>0.58251340000000007</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J89" s="34">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="19">
         <f t="shared" si="9"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="19">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N89" s="1">
+      <c r="N89" s="33">
         <f>AVERAGE(N84:N88)</f>
         <v>0.90867959999999992</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J90"/>
+      <c r="J90" s="19"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J91"/>
+      <c r="J91" s="19"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J92"/>
+      <c r="J92" s="19"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J93"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J94"/>
+      <c r="J94" s="19"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J95"/>
+      <c r="J95" s="19"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J96"/>
+      <c r="J96" s="19"/>
     </row>
     <row r="97" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J97"/>
+      <c r="J97" s="19"/>
     </row>
     <row r="98" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J98"/>
+      <c r="J98" s="19"/>
     </row>
     <row r="99" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J99"/>
+      <c r="J99" s="19"/>
     </row>
     <row r="100" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J100"/>
+      <c r="J100" s="19"/>
     </row>
     <row r="101" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J101"/>
+      <c r="J101" s="19"/>
     </row>
     <row r="102" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J102"/>
+      <c r="J102" s="19"/>
     </row>
     <row r="103" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J103"/>
+      <c r="J103" s="19"/>
     </row>
     <row r="104" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J104"/>
+      <c r="J104" s="19"/>
     </row>
     <row r="105" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J105"/>
+      <c r="J105" s="19"/>
     </row>
     <row r="106" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J106"/>
+      <c r="J106" s="19"/>
     </row>
     <row r="107" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J107"/>
+      <c r="J107" s="19"/>
     </row>
     <row r="108" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J108"/>
+      <c r="J108" s="19"/>
     </row>
     <row r="109" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J109"/>
+      <c r="J109" s="19"/>
     </row>
     <row r="110" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J110"/>
+      <c r="J110" s="19"/>
     </row>
     <row r="111" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J111"/>
+      <c r="J111" s="19"/>
     </row>
     <row r="112" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J112"/>
+      <c r="J112" s="19"/>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J113"/>
+      <c r="J113" s="19"/>
     </row>
     <row r="114" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J114"/>
+      <c r="J114" s="19"/>
     </row>
     <row r="115" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J115"/>
+      <c r="J115" s="19"/>
     </row>
     <row r="116" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J116"/>
+      <c r="J116" s="19"/>
     </row>
     <row r="117" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J117"/>
+      <c r="J117" s="19"/>
     </row>
     <row r="118" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J118"/>
+      <c r="J118" s="19"/>
     </row>
     <row r="119" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J119"/>
+      <c r="J119" s="19"/>
     </row>
     <row r="120" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J120"/>
+      <c r="J120" s="19"/>
     </row>
     <row r="121" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J121"/>
+      <c r="J121" s="19"/>
     </row>
     <row r="122" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J122"/>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J123"/>
+      <c r="J123" s="19"/>
     </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J124"/>
+      <c r="J124" s="19"/>
     </row>
     <row r="125" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J125"/>
+      <c r="J125" s="19"/>
     </row>
     <row r="126" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J126"/>
+      <c r="J126" s="19"/>
     </row>
     <row r="127" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J127"/>
+      <c r="J127" s="19"/>
     </row>
     <row r="128" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J128"/>
+      <c r="J128" s="19"/>
     </row>
     <row r="129" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J129"/>
+      <c r="J129" s="19"/>
     </row>
     <row r="130" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J130"/>
+      <c r="J130" s="19"/>
     </row>
     <row r="131" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J131"/>
+      <c r="J131" s="19"/>
     </row>
     <row r="132" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J132"/>
+      <c r="J132" s="19"/>
     </row>
     <row r="133" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J133"/>
+      <c r="J133" s="19"/>
     </row>
     <row r="134" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J134"/>
+      <c r="J134" s="19"/>
     </row>
     <row r="135" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J135"/>
+      <c r="J135" s="19"/>
     </row>
     <row r="136" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J136"/>
+      <c r="J136" s="19"/>
     </row>
     <row r="137" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J137"/>
+      <c r="J137" s="19"/>
     </row>
     <row r="138" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J138"/>
+      <c r="J138" s="19"/>
     </row>
     <row r="139" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J139"/>
+      <c r="J139" s="19"/>
     </row>
     <row r="140" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J140"/>
+      <c r="J140" s="19"/>
     </row>
     <row r="141" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J141"/>
+      <c r="J141" s="19"/>
     </row>
     <row r="142" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J142"/>
+      <c r="J142" s="19"/>
     </row>
     <row r="143" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J143"/>
+      <c r="J143" s="19"/>
     </row>
     <row r="144" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J144"/>
+      <c r="J144" s="19"/>
     </row>
     <row r="145" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J145"/>
+      <c r="J145" s="19"/>
     </row>
     <row r="146" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J146"/>
+      <c r="J146" s="19"/>
     </row>
     <row r="147" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J147"/>
+      <c r="J147" s="19"/>
     </row>
     <row r="148" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J148"/>
+      <c r="J148" s="19"/>
     </row>
     <row r="149" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J149"/>
+      <c r="J149" s="19"/>
     </row>
     <row r="150" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J150"/>
+      <c r="J150" s="19"/>
     </row>
     <row r="151" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J151"/>
+      <c r="J151" s="19"/>
     </row>
     <row r="152" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J152"/>
+      <c r="J152" s="19"/>
     </row>
     <row r="153" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J153"/>
+      <c r="J153" s="19"/>
     </row>
     <row r="154" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J154"/>
+      <c r="J154" s="19"/>
     </row>
     <row r="155" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J155"/>
+      <c r="J155" s="19"/>
     </row>
     <row r="156" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J156"/>
+      <c r="J156" s="19"/>
     </row>
     <row r="157" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J157"/>
+      <c r="J157" s="19"/>
     </row>
     <row r="158" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J158"/>
+      <c r="J158" s="19"/>
     </row>
     <row r="159" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J159"/>
+      <c r="J159" s="19"/>
     </row>
     <row r="160" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J160"/>
+      <c r="J160" s="19"/>
     </row>
     <row r="161" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J161"/>
+      <c r="J161" s="19"/>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J162"/>
+      <c r="J162" s="19"/>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J163"/>
+      <c r="J163" s="19"/>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J164"/>
+      <c r="J164" s="19"/>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J165"/>
+      <c r="J165" s="19"/>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J166"/>
+      <c r="J166" s="19"/>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J167"/>
+      <c r="J167" s="19"/>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J168"/>
+      <c r="J168" s="19"/>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J169"/>
+      <c r="J169" s="19"/>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J170"/>
+      <c r="J170" s="19"/>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J171"/>
+      <c r="J171" s="19"/>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J172"/>
+      <c r="J172" s="19"/>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J173"/>
+      <c r="J173" s="19"/>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J174"/>
+      <c r="J174" s="19"/>
     </row>
     <row r="175" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J175"/>
+      <c r="J175" s="19"/>
     </row>
     <row r="176" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J176"/>
+      <c r="J176" s="19"/>
     </row>
     <row r="177" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J177"/>
+      <c r="J177" s="19"/>
     </row>
     <row r="178" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J178"/>
+      <c r="J178" s="19"/>
     </row>
     <row r="179" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J179"/>
+      <c r="J179" s="19"/>
     </row>
     <row r="180" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J180"/>
+      <c r="J180" s="19"/>
     </row>
     <row r="181" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J181"/>
+      <c r="J181" s="19"/>
     </row>
     <row r="182" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J182"/>
+      <c r="J182" s="19"/>
     </row>
     <row r="183" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J183"/>
+      <c r="J183" s="19"/>
     </row>
     <row r="184" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J184"/>
+      <c r="J184" s="19"/>
     </row>
     <row r="185" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J185"/>
+      <c r="J185" s="19"/>
     </row>
     <row r="186" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J186"/>
+      <c r="J186" s="19"/>
     </row>
     <row r="187" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J187"/>
+      <c r="J187" s="19"/>
     </row>
     <row r="188" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J188"/>
+      <c r="J188" s="19"/>
     </row>
     <row r="189" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J189"/>
+      <c r="J189" s="19"/>
     </row>
     <row r="190" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J190"/>
+      <c r="J190" s="19"/>
     </row>
     <row r="191" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J191"/>
+      <c r="J191" s="19"/>
     </row>
     <row r="192" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J192"/>
+      <c r="J192" s="19"/>
     </row>
     <row r="193" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J193"/>
+      <c r="J193" s="19"/>
     </row>
     <row r="194" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J194"/>
+      <c r="J194" s="19"/>
     </row>
     <row r="195" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J195"/>
+      <c r="J195" s="19"/>
     </row>
     <row r="196" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J196"/>
+      <c r="J196" s="19"/>
     </row>
     <row r="197" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J197"/>
+      <c r="J197" s="19"/>
     </row>
     <row r="198" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J198"/>
+      <c r="J198" s="19"/>
     </row>
     <row r="199" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J199"/>
+      <c r="J199" s="19"/>
     </row>
     <row r="200" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J200"/>
+      <c r="J200" s="19"/>
     </row>
     <row r="201" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J201"/>
+      <c r="J201" s="19"/>
     </row>
     <row r="202" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J202"/>
+      <c r="J202" s="19"/>
     </row>
     <row r="203" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J203"/>
+      <c r="J203" s="19"/>
     </row>
     <row r="204" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J204"/>
+      <c r="J204" s="19"/>
     </row>
     <row r="205" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J205"/>
+      <c r="J205" s="19"/>
     </row>
     <row r="206" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J206"/>
+      <c r="J206" s="19"/>
     </row>
     <row r="207" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J207"/>
+      <c r="J207" s="19"/>
     </row>
     <row r="208" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J208"/>
+      <c r="J208" s="19"/>
     </row>
     <row r="209" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J209"/>
+      <c r="J209" s="19"/>
     </row>
     <row r="210" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J210"/>
+      <c r="J210" s="19"/>
     </row>
     <row r="211" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J211"/>
+      <c r="J211" s="19"/>
     </row>
     <row r="212" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J212"/>
+      <c r="J212" s="19"/>
     </row>
     <row r="213" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J213"/>
+      <c r="J213" s="19"/>
     </row>
     <row r="214" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J214"/>
+      <c r="J214" s="19"/>
     </row>
     <row r="215" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J215"/>
+      <c r="J215" s="19"/>
     </row>
     <row r="216" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J216"/>
+      <c r="J216" s="19"/>
     </row>
     <row r="217" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J217"/>
+      <c r="J217" s="19"/>
     </row>
     <row r="218" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J218"/>
+      <c r="J218" s="19"/>
     </row>
     <row r="219" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J219"/>
+      <c r="J219" s="19"/>
     </row>
     <row r="220" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J220"/>
+      <c r="J220" s="19"/>
     </row>
     <row r="221" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J221"/>
+      <c r="J221" s="19"/>
     </row>
     <row r="222" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J222"/>
+      <c r="J222" s="19"/>
     </row>
     <row r="223" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J223"/>
+      <c r="J223" s="19"/>
     </row>
     <row r="224" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J224"/>
+      <c r="J224" s="19"/>
     </row>
     <row r="225" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J225"/>
+      <c r="J225" s="19"/>
     </row>
     <row r="226" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J226"/>
+      <c r="J226" s="19"/>
     </row>
     <row r="227" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J227"/>
+      <c r="J227" s="19"/>
     </row>
     <row r="228" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J228"/>
+      <c r="J228" s="19"/>
     </row>
     <row r="229" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J229"/>
+      <c r="J229" s="19"/>
     </row>
     <row r="230" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J230"/>
+      <c r="J230" s="19"/>
     </row>
     <row r="231" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J231"/>
+      <c r="J231" s="19"/>
     </row>
     <row r="232" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J232"/>
+      <c r="J232" s="19"/>
     </row>
     <row r="233" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J233"/>
+      <c r="J233" s="19"/>
     </row>
     <row r="234" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J234"/>
+      <c r="J234" s="19"/>
     </row>
     <row r="235" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J235"/>
+      <c r="J235" s="19"/>
     </row>
     <row r="236" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J236"/>
+      <c r="J236" s="19"/>
     </row>
     <row r="237" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J237"/>
+      <c r="J237" s="19"/>
     </row>
     <row r="238" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J238"/>
+      <c r="J238" s="19"/>
     </row>
     <row r="239" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J239"/>
+      <c r="J239" s="19"/>
     </row>
     <row r="240" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J240"/>
+      <c r="J240" s="19"/>
     </row>
     <row r="241" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J241"/>
+      <c r="J241" s="19"/>
     </row>
     <row r="242" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J242"/>
+      <c r="J242" s="19"/>
     </row>
     <row r="243" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J243"/>
+      <c r="J243" s="19"/>
     </row>
     <row r="244" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J244"/>
+      <c r="J244" s="19"/>
     </row>
     <row r="245" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J245"/>
+      <c r="J245" s="19"/>
     </row>
     <row r="246" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J246"/>
+      <c r="J246" s="19"/>
     </row>
     <row r="247" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J247"/>
+      <c r="J247" s="19"/>
     </row>
     <row r="248" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J248"/>
+      <c r="J248" s="19"/>
     </row>
     <row r="249" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J249"/>
+      <c r="J249" s="19"/>
     </row>
     <row r="250" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J250"/>
+      <c r="J250" s="19"/>
     </row>
     <row r="251" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J251"/>
+      <c r="J251" s="19"/>
     </row>
     <row r="252" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J252"/>
+      <c r="J252" s="19"/>
     </row>
     <row r="253" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J253"/>
+      <c r="J253" s="19"/>
     </row>
     <row r="254" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J254"/>
+      <c r="J254" s="19"/>
     </row>
     <row r="255" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J255"/>
+      <c r="J255" s="19"/>
     </row>
     <row r="256" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J256"/>
+      <c r="J256" s="19"/>
     </row>
     <row r="257" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J257"/>
+      <c r="J257" s="19"/>
     </row>
     <row r="258" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J258"/>
+      <c r="J258" s="19"/>
     </row>
     <row r="259" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J259"/>
+      <c r="J259" s="19"/>
     </row>
     <row r="260" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J260"/>
+      <c r="J260" s="19"/>
     </row>
     <row r="261" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J261"/>
+      <c r="J261" s="19"/>
     </row>
     <row r="262" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J262"/>
+      <c r="J262" s="19"/>
     </row>
     <row r="263" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J263"/>
+      <c r="J263" s="19"/>
     </row>
     <row r="264" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J264"/>
+      <c r="J264" s="19"/>
     </row>
     <row r="265" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J265"/>
+      <c r="J265" s="19"/>
     </row>
     <row r="266" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J266"/>
+      <c r="J266" s="19"/>
     </row>
     <row r="267" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J267"/>
+      <c r="J267" s="19"/>
     </row>
     <row r="268" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J268"/>
+      <c r="J268" s="19"/>
     </row>
     <row r="269" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J269"/>
+      <c r="J269" s="19"/>
     </row>
     <row r="270" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J270"/>
+      <c r="J270" s="19"/>
     </row>
     <row r="271" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J271"/>
+      <c r="J271" s="19"/>
     </row>
     <row r="272" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J272"/>
+      <c r="J272" s="19"/>
     </row>
     <row r="273" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J273"/>
+      <c r="J273" s="19"/>
     </row>
     <row r="274" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J274"/>
+      <c r="J274" s="19"/>
     </row>
     <row r="275" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J275"/>
+      <c r="J275" s="19"/>
     </row>
     <row r="276" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J276"/>
+      <c r="J276" s="19"/>
     </row>
     <row r="277" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J277"/>
+      <c r="J277" s="19"/>
     </row>
     <row r="278" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J278"/>
+      <c r="J278" s="19"/>
     </row>
     <row r="279" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J279"/>
+      <c r="J279" s="19"/>
     </row>
     <row r="280" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J280"/>
+      <c r="J280" s="19"/>
     </row>
     <row r="281" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J281"/>
+      <c r="J281" s="19"/>
     </row>
     <row r="282" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J282"/>
+      <c r="J282" s="19"/>
     </row>
     <row r="283" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J283"/>
+      <c r="J283" s="19"/>
     </row>
     <row r="284" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J284"/>
+      <c r="J284" s="19"/>
     </row>
     <row r="285" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J285"/>
+      <c r="J285" s="19"/>
     </row>
     <row r="286" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J286"/>
+      <c r="J286" s="19"/>
     </row>
     <row r="287" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J287"/>
+      <c r="J287" s="19"/>
     </row>
     <row r="288" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J288"/>
+      <c r="J288" s="19"/>
     </row>
     <row r="289" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J289"/>
+      <c r="J289" s="19"/>
     </row>
     <row r="290" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J290"/>
+      <c r="J290" s="19"/>
     </row>
     <row r="291" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J291"/>
+      <c r="J291" s="19"/>
     </row>
     <row r="292" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J292"/>
+      <c r="J292" s="19"/>
     </row>
     <row r="293" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J293"/>
+      <c r="J293" s="19"/>
     </row>
     <row r="294" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J294"/>
+      <c r="J294" s="19"/>
     </row>
     <row r="295" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J295"/>
+      <c r="J295" s="19"/>
     </row>
     <row r="296" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J296"/>
+      <c r="J296" s="19"/>
     </row>
     <row r="297" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J297"/>
+      <c r="J297" s="19"/>
     </row>
     <row r="298" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J298"/>
+      <c r="J298" s="19"/>
     </row>
     <row r="299" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J299"/>
+      <c r="J299" s="19"/>
     </row>
     <row r="300" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J300"/>
+      <c r="J300" s="19"/>
     </row>
     <row r="301" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J301"/>
+      <c r="J301" s="19"/>
     </row>
     <row r="302" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J302"/>
+      <c r="J302" s="19"/>
     </row>
     <row r="303" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J303"/>
+      <c r="J303" s="19"/>
     </row>
     <row r="304" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J304"/>
+      <c r="J304" s="19"/>
     </row>
     <row r="305" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J305"/>
+      <c r="J305" s="19"/>
     </row>
     <row r="306" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J306"/>
+      <c r="J306" s="19"/>
     </row>
     <row r="307" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J307"/>
+      <c r="J307" s="19"/>
     </row>
     <row r="308" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J308"/>
+      <c r="J308" s="19"/>
     </row>
     <row r="309" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J309"/>
+      <c r="J309" s="19"/>
     </row>
     <row r="310" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J310"/>
+      <c r="J310" s="19"/>
     </row>
     <row r="311" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J311"/>
+      <c r="J311" s="19"/>
     </row>
     <row r="312" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J312"/>
+      <c r="J312" s="19"/>
     </row>
     <row r="313" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J313"/>
+      <c r="J313" s="19"/>
     </row>
     <row r="314" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J314"/>
+      <c r="J314" s="19"/>
     </row>
     <row r="315" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J315"/>
+      <c r="J315" s="19"/>
     </row>
     <row r="316" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J316"/>
+      <c r="J316" s="19"/>
     </row>
     <row r="317" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J317"/>
+      <c r="J317" s="19"/>
     </row>
     <row r="318" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J318"/>
+      <c r="J318" s="19"/>
     </row>
     <row r="319" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J319"/>
+      <c r="J319" s="19"/>
     </row>
     <row r="320" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J320"/>
+      <c r="J320" s="19"/>
     </row>
     <row r="321" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J321"/>
+      <c r="J321" s="19"/>
     </row>
     <row r="322" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J322"/>
+      <c r="J322" s="19"/>
     </row>
     <row r="323" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J323"/>
+      <c r="J323" s="19"/>
     </row>
     <row r="324" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J324"/>
+      <c r="J324" s="19"/>
     </row>
     <row r="325" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J325"/>
+      <c r="J325" s="19"/>
     </row>
     <row r="326" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J326"/>
+      <c r="J326" s="19"/>
     </row>
     <row r="327" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J327"/>
+      <c r="J327" s="19"/>
     </row>
     <row r="328" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J328"/>
+      <c r="J328" s="19"/>
     </row>
     <row r="329" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J329"/>
+      <c r="J329" s="19"/>
     </row>
     <row r="330" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J330"/>
+      <c r="J330" s="19"/>
     </row>
     <row r="331" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J331"/>
+      <c r="J331" s="19"/>
     </row>
     <row r="332" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J332"/>
+      <c r="J332" s="19"/>
     </row>
     <row r="333" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J333"/>
+      <c r="J333" s="19"/>
     </row>
     <row r="334" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J334"/>
+      <c r="J334" s="19"/>
     </row>
     <row r="335" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J335"/>
+      <c r="J335" s="19"/>
     </row>
     <row r="336" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J336"/>
+      <c r="J336" s="19"/>
     </row>
     <row r="337" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J337"/>
+      <c r="J337" s="19"/>
     </row>
     <row r="338" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J338"/>
+      <c r="J338" s="19"/>
     </row>
     <row r="339" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J339"/>
+      <c r="J339" s="19"/>
     </row>
     <row r="340" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J340"/>
+      <c r="J340" s="19"/>
     </row>
     <row r="341" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J341"/>
+      <c r="J341" s="19"/>
     </row>
     <row r="342" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J342"/>
+      <c r="J342" s="19"/>
     </row>
     <row r="343" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J343"/>
+      <c r="J343" s="19"/>
     </row>
     <row r="344" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J344"/>
+      <c r="J344" s="19"/>
     </row>
     <row r="345" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J345"/>
+      <c r="J345" s="19"/>
     </row>
     <row r="346" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J346"/>
+      <c r="J346" s="19"/>
     </row>
     <row r="347" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J347"/>
+      <c r="J347" s="19"/>
     </row>
     <row r="348" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J348"/>
+      <c r="J348" s="19"/>
     </row>
     <row r="349" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J349"/>
+      <c r="J349" s="19"/>
     </row>
     <row r="350" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J350"/>
+      <c r="J350" s="19"/>
     </row>
     <row r="351" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J351"/>
+      <c r="J351" s="19"/>
     </row>
     <row r="352" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J352"/>
+      <c r="J352" s="19"/>
     </row>
     <row r="353" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J353"/>
+      <c r="J353" s="19"/>
     </row>
     <row r="354" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J354"/>
+      <c r="J354" s="19"/>
     </row>
     <row r="355" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J355"/>
+      <c r="J355" s="19"/>
     </row>
     <row r="356" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J356"/>
+      <c r="J356" s="19"/>
     </row>
     <row r="357" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J357"/>
+      <c r="J357" s="19"/>
     </row>
     <row r="358" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J358"/>
+      <c r="J358" s="19"/>
     </row>
     <row r="359" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J359"/>
+      <c r="J359" s="19"/>
     </row>
     <row r="360" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J360"/>
+      <c r="J360" s="19"/>
     </row>
     <row r="361" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J361"/>
+      <c r="J361" s="19"/>
     </row>
     <row r="362" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J362"/>
+      <c r="J362" s="19"/>
     </row>
     <row r="363" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J363"/>
+      <c r="J363" s="19"/>
     </row>
     <row r="364" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J364"/>
+      <c r="J364" s="19"/>
     </row>
     <row r="365" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J365"/>
+      <c r="J365" s="19"/>
     </row>
     <row r="366" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J366"/>
+      <c r="J366" s="19"/>
     </row>
     <row r="367" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J367"/>
+      <c r="J367" s="19"/>
     </row>
     <row r="368" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J368"/>
+      <c r="J368" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
